--- a/class_notes/Double exponential smoothing.xlsx
+++ b/class_notes/Double exponential smoothing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\GitHub\Time-Series-Analysis\class_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96FD727-1FB5-40D9-AB16-84C49B71A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1B01AD-1C19-4513-A63F-C1CD569661F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B232E577-BF16-435C-AB51-E35F755420D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B232E577-BF16-435C-AB51-E35F755420D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Double Exponential smoothing" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +183,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3435,16 +3444,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32497</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>393964</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293111</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>108112</xdr:rowOff>
+      <xdr:rowOff>12862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3473,8 +3482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619750" y="95250"/>
-          <a:ext cx="5137414" cy="3156112"/>
+          <a:off x="3058085" y="0"/>
+          <a:ext cx="5101555" cy="3083274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3485,16 +3494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>301252</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>73399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>601569</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31937</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3521,16 +3530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3558,15 +3567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>514611</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>209811</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3891,15 +3900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108A6BAA-5F3F-47B2-B341-F9FCA4097E1B}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3913,7 +3922,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3929,7 +3938,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3946,7 +3955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3957,7 +3966,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -3974,7 +3983,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -3991,7 +4000,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -3999,16 +4008,16 @@
         <v>20</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C23" si="0">C$2*(C7+D7)+C$1*B8</f>
+        <f t="shared" ref="C8:C19" si="0">C$2*(C7+D7)+C$1*B8</f>
         <v>14.216000000000001</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D23" si="1">E$2*D7+E$1*(C8-C7)</f>
+        <f t="shared" ref="D8:D19" si="1">E$2*D7+E$1*(C8-C7)</f>
         <v>5.2591999999999999</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -4025,7 +4034,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -4042,7 +4051,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -4059,7 +4068,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -4076,7 +4085,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -4093,7 +4102,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -4110,7 +4119,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -4127,7 +4136,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -4144,7 +4153,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -4161,7 +4170,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -4178,7 +4187,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -4194,11 +4203,13 @@
         <v>7.1179729008839994</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="J19" t="s">
+      <c r="J19" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -4209,7 +4220,7 @@
         <v>92.352036359384599</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -4220,7 +4231,7 @@
         <v>99.470009260268597</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -4231,7 +4242,7 @@
         <v>106.5879821611526</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -4243,6 +4254,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J19:L19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
